--- a/Input_file.xlsx
+++ b/Input_file.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>File1.csv</t>
   </si>
@@ -27,15 +27,38 @@
     <t>Variable</t>
   </si>
   <si>
-    <t>Input</t>
+    <t>CSV</t>
+  </si>
+  <si>
+    <t>File1_Type</t>
+  </si>
+  <si>
+    <t>File1_Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>File2_Type</t>
+  </si>
+  <si>
+    <t>File2_Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -63,8 +86,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,40 +392,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Input_file.xlsx
+++ b/Input_file.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>File1.csv</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>File2_Name</t>
+  </si>
+  <si>
+    <t>ID,Name,Marks</t>
+  </si>
+  <si>
+    <t>Marks &gt; 79</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Columns</t>
   </si>
 </sst>
 </file>
@@ -86,11 +98,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,15 +416,17 @@
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -419,7 +434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -427,20 +442,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Input_file.xlsx
+++ b/Input_file.xlsx
@@ -16,52 +16,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
-  <si>
-    <t>File1.csv</t>
-  </si>
-  <si>
-    <t>File2.csv</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>CSV</t>
-  </si>
-  <si>
-    <t>File1_Type</t>
-  </si>
-  <si>
-    <t>File1_Name</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>File2_Type</t>
-  </si>
-  <si>
-    <t>File2_Name</t>
-  </si>
-  <si>
-    <t>ID,Name,Marks</t>
-  </si>
-  <si>
-    <t>Marks &gt; 79</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>Columns</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+  <si>
+    <t>Report_Location</t>
+  </si>
+  <si>
+    <t>Source File Path</t>
+  </si>
+  <si>
+    <t>Source File Name</t>
+  </si>
+  <si>
+    <t>Target File Path</t>
+  </si>
+  <si>
+    <t>Target File Name</t>
+  </si>
+  <si>
+    <t>Unique_Keys</t>
+  </si>
+  <si>
+    <t>Run_Flag</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>C:\Users\Owner\PycharmProjects\pysql</t>
+  </si>
+  <si>
+    <t>C:/Users/Owner/PycharmProjects/pysql/Results/Report</t>
+  </si>
+  <si>
+    <t>C:/Users/Owner/PycharmProjects/pysql/</t>
+  </si>
+  <si>
+    <t>file1.csv</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>file1_2.csv</t>
+  </si>
+  <si>
+    <t>file2.csv</t>
+  </si>
+  <si>
+    <t>file2_2.csv</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Work_dir</t>
+  </si>
+  <si>
+    <t>Test_Case_Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,12 +94,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="9.6"/>
+      <color rgb="FF008080"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,12 +115,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -100,10 +144,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,89 +447,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Input_file.xlsx
+++ b/Input_file.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Report_Location</t>
   </si>
@@ -48,9 +48,6 @@
     <t>TC2</t>
   </si>
   <si>
-    <t>C:\Users\Owner\PycharmProjects\pysql</t>
-  </si>
-  <si>
     <t>C:/Users/Owner/PycharmProjects/pysql/Results/Report</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>Work_dir</t>
   </si>
   <si>
     <t>Test_Case_Name</t>
@@ -447,110 +441,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -561,12 +535,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Input_file.xlsx
+++ b/Input_file.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,11 +443,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="44.5703125" bestFit="1" customWidth="1"/>
@@ -458,7 +458,7 @@
     <col min="7" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -481,7 +481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -504,7 +504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -537,21 +537,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -567,7 +567,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
